--- a/data/RDI.xlsx
+++ b/data/RDI.xlsx
@@ -336,7 +336,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,10 +781,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3.7</v>
+        <v>3700000</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2.7</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
